--- a/Andrew-annotations/GCI_Q3_2009.xlsx
+++ b/Andrew-annotations/GCI_Q3_2009.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E458E3-064D-445D-837F-46C5D8578CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124C0522-CFC2-401F-89F0-6BCD65AE50B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:J20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,16 +618,16 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -650,10 +650,10 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -682,13 +682,13 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -717,10 +717,10 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -749,7 +749,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -781,13 +781,13 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -813,10 +813,10 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -842,10 +842,10 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -903,22 +903,22 @@
         <v>35</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -941,10 +941,10 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -970,16 +970,16 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1002,13 +1002,13 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -1037,13 +1037,13 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1066,16 +1066,16 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -1098,16 +1098,16 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1162,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1194,16 +1194,16 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>2</v>
